--- a/251030 - Sushibox docker táblázat.xlsx
+++ b/251030 - Sushibox docker táblázat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z_Extra\ZZ_MAGAN\01.Projects\251030 - Sushibox docker táblázat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\sushibox-docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B0BF7-444A-4E12-9474-B2AB4341D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3968F3-83A4-4B5F-A147-30CDF510CFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA977C6D-A5E8-4F8E-BD8A-BA6C464F2D4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Container név</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>admin web port</t>
+  </si>
+  <si>
+    <t>wt_container</t>
+  </si>
+  <si>
+    <t>watchtower</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -245,11 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -300,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{19FAD340-011B-4737-A60A-68530737B41A}" name="Besorolás"/>
     <tableColumn id="2" xr3:uid="{8C7BAED3-7421-42E9-9F33-41E04D4EFE6C}" name="Container név"/>
@@ -653,7 +663,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +678,7 @@
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,25 +717,25 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx-Proxy-Manager</v>
       </c>
@@ -737,25 +747,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx</v>
       </c>
@@ -767,25 +777,25 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Portainer</v>
       </c>
@@ -852,13 +862,13 @@
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>9100</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -888,13 +898,13 @@
       <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>9101</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>443</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -924,13 +934,13 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>8000</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -960,36 +970,36 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>9001</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>9443</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/PrivateBin</v>
       </c>
@@ -1026,17 +1036,38 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>9110</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" t="s">
         <v>17</v>
       </c>
@@ -1056,13 +1087,13 @@
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>9111</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>443</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1070,13 +1101,13 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>9112</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>81</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>46</v>
       </c>
     </row>

--- a/251030 - Sushibox docker táblázat.xlsx
+++ b/251030 - Sushibox docker táblázat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\sushibox-docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3968F3-83A4-4B5F-A147-30CDF510CFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59496B13-0224-4ABF-9254-8388BC1A8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA977C6D-A5E8-4F8E-BD8A-BA6C464F2D4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA977C6D-A5E8-4F8E-BD8A-BA6C464F2D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="251030" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Container név</t>
   </si>
@@ -186,13 +186,29 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Port Base</t>
+  </si>
+  <si>
+    <t>Port key</t>
+  </si>
+  <si>
+    <t>Host port base</t>
+  </si>
+  <si>
+    <t>Unique-ifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +226,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +253,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,20 +276,124 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ezres" xfId="1" builtinId="3"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -290,12 +419,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -310,16 +433,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{19FAD340-011B-4737-A60A-68530737B41A}" name="Besorolás"/>
-    <tableColumn id="2" xr3:uid="{8C7BAED3-7421-42E9-9F33-41E04D4EFE6C}" name="Container név"/>
-    <tableColumn id="3" xr3:uid="{4B6E043E-620A-4B9B-9DF9-23EB573E8DFA}" name="Image"/>
-    <tableColumn id="5" xr3:uid="{5817E220-4E4E-4021-A887-09B45A246EAE}" name="Kellőség"/>
-    <tableColumn id="6" xr3:uid="{B595718B-1E56-4884-BD51-0E8FF2B27499}" name="Base"/>
-    <tableColumn id="7" xr3:uid="{58A88DD4-D029-4F6D-8943-F229FAB1E300}" name="Könyvtár" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C734893A-3907-4057-92E2-F3DE010BC588}" name="URI" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:I12" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:I12" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{19FAD340-011B-4737-A60A-68530737B41A}" name="Besorolás" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8C7BAED3-7421-42E9-9F33-41E04D4EFE6C}" name="Container név" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{5387A4CC-6D4A-4C43-9577-B389EF970A5A}" name="Port key" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BA9A9D88-ECBD-4810-B27E-42863D5B9EBC}" name="Port Base" dataDxfId="1" dataCellStyle="Ezres">
+      <calculatedColumnFormula>Táblázat1[[#This Row],[Port key]]*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4B6E043E-620A-4B9B-9DF9-23EB573E8DFA}" name="Image" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5817E220-4E4E-4021-A887-09B45A246EAE}" name="Kellőség" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B595718B-1E56-4884-BD51-0E8FF2B27499}" name="Base" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{58A88DD4-D029-4F6D-8943-F229FAB1E300}" name="Könyvtár" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{C734893A-3907-4057-92E2-F3DE010BC588}" name="URI" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -328,14 +455,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}" name="Táblázat3" displayName="Táblázat3" ref="I1:L27" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:L27" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:L13">
-    <sortCondition ref="I1:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}" name="Táblázat3" displayName="Táblázat3" ref="K1:P27" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="K1:P27" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:P13">
+    <sortCondition ref="K1:K27"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A3A93449-C880-4CFE-AC31-3A9366DF4F91}" name="Container név"/>
-    <tableColumn id="2" xr3:uid="{5652C98A-DC7D-435A-80BF-CFDCD43C7DDA}" name="Host port"/>
+    <tableColumn id="2" xr3:uid="{5652C98A-DC7D-435A-80BF-CFDCD43C7DDA}" name="Host port base" dataDxfId="5">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{0E078F2C-C3A8-485C-8882-60D73C6EBCBC}" name="Unique-ifier" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4025B1EF-7C7D-407C-85BA-EBC6E4460D38}" name="Host port" dataDxfId="4" dataCellStyle="Ezres">
+      <calculatedColumnFormula>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{930327C8-2A0C-49D8-B5EC-57170DDDD94A}" name="Container port"/>
     <tableColumn id="4" xr3:uid="{93F611B3-FA84-483C-8531-D791E98CB60D}" name="Magyarázat"/>
   </tableColumns>
@@ -660,28 +795,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C453782C-7216-4DD4-B7B9-A18DD6D8ADBA}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -689,429 +828,726 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>20000</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="I2" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx-Proxy-Manager</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>9170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>30000</v>
+      </c>
+      <c r="M2" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>30001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>30000</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="I3" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>9120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>30000</v>
+      </c>
+      <c r="M3" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>30002</v>
+      </c>
+      <c r="O3" s="3">
+        <v>443</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>21000</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="I4" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Portainer</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>9150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>31000</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Gitea</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>20000</v>
+      </c>
+      <c r="M5" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>20001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
-        <v>9130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>32000</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nextcloud</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K6" s="3">
-        <v>80</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>20000</v>
+      </c>
+      <c r="M6" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>20002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>81</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>33000</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Vaultwarden</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3">
-        <v>9101</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>20000</v>
+      </c>
+      <c r="M7" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>20003</v>
+      </c>
+      <c r="O7" s="3">
         <v>443</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>34000</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Jellyfin</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>35000</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="str">
+      <c r="I9" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/FileBrowser</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3">
-        <v>9001</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9443</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>21000</v>
+      </c>
+      <c r="M9" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>21001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>36000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="I10" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/PrivateBin</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>9180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>21000</v>
+      </c>
+      <c r="M10" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>21002</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9443</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>37000</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="str">
+      <c r="I11" s="3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/qBittorrent</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3">
-        <v>9110</v>
-      </c>
-      <c r="K11" s="3">
-        <v>80</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>Táblázat1[[#This Row],[Port key]]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>36000</v>
+      </c>
+      <c r="M12" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>36001</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J12">
-        <v>9190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
+      <c r="L14" s="8">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>37000</v>
+      </c>
+      <c r="M14" s="8">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>37001</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13">
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3">
-        <v>9111</v>
-      </c>
-      <c r="K14" s="3">
-        <v>443</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9112</v>
-      </c>
-      <c r="K15" s="3">
-        <v>81</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="L15" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>33000</v>
+      </c>
+      <c r="M15" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>33001</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>35000</v>
+      </c>
+      <c r="M21" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>35001</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>31000</v>
+      </c>
+      <c r="M22" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>31001</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>34000</v>
+      </c>
+      <c r="M23" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>34001</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3">
+        <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
+        <v>32000</v>
+      </c>
+      <c r="M24" s="3">
+        <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
+        <v>32001</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">

--- a/251030 - Sushibox docker táblázat.xlsx
+++ b/251030 - Sushibox docker táblázat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\sushibox-docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59496B13-0224-4ABF-9254-8388BC1A8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A71DE9-7E15-449B-8C2E-2F0D7895A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA977C6D-A5E8-4F8E-BD8A-BA6C464F2D4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA977C6D-A5E8-4F8E-BD8A-BA6C464F2D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="251030" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Container név</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Unique-ifier</t>
+  </si>
+  <si>
+    <t>traffic</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -280,22 +283,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -306,41 +309,30 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -387,6 +379,23 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -395,27 +404,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -433,20 +433,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:I12" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}" name="Táblázat1" displayName="Táblázat1" ref="A1:I12" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:I12" xr:uid="{2B64652B-0C45-4260-8C8F-9B906B8FC48B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{19FAD340-011B-4737-A60A-68530737B41A}" name="Besorolás" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{8C7BAED3-7421-42E9-9F33-41E04D4EFE6C}" name="Container név" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{5387A4CC-6D4A-4C43-9577-B389EF970A5A}" name="Port key" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BA9A9D88-ECBD-4810-B27E-42863D5B9EBC}" name="Port Base" dataDxfId="1" dataCellStyle="Ezres">
+    <tableColumn id="9" xr3:uid="{5387A4CC-6D4A-4C43-9577-B389EF970A5A}" name="Port key" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BA9A9D88-ECBD-4810-B27E-42863D5B9EBC}" name="Port Base" dataDxfId="9" dataCellStyle="Ezres">
       <calculatedColumnFormula>Táblázat1[[#This Row],[Port key]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4B6E043E-620A-4B9B-9DF9-23EB573E8DFA}" name="Image" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5817E220-4E4E-4021-A887-09B45A246EAE}" name="Kellőség" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B595718B-1E56-4884-BD51-0E8FF2B27499}" name="Base" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{58A88DD4-D029-4F6D-8943-F229FAB1E300}" name="Könyvtár" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{C734893A-3907-4057-92E2-F3DE010BC588}" name="URI" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{4B6E043E-620A-4B9B-9DF9-23EB573E8DFA}" name="Image" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5817E220-4E4E-4021-A887-09B45A246EAE}" name="Kellőség" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B595718B-1E56-4884-BD51-0E8FF2B27499}" name="Base" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{58A88DD4-D029-4F6D-8943-F229FAB1E300}" name="Könyvtár" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C734893A-3907-4057-92E2-F3DE010BC588}" name="URI" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -455,20 +455,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}" name="Táblázat3" displayName="Táblázat3" ref="K1:P27" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}" name="Táblázat3" displayName="Táblázat3" ref="K1:P27" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="K1:P27" xr:uid="{16BFC767-1DD8-4C58-A564-3CFA557B58B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:P13">
     <sortCondition ref="K1:K27"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A3A93449-C880-4CFE-AC31-3A9366DF4F91}" name="Container név"/>
-    <tableColumn id="2" xr3:uid="{5652C98A-DC7D-435A-80BF-CFDCD43C7DDA}" name="Host port base" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{5652C98A-DC7D-435A-80BF-CFDCD43C7DDA}" name="Host port base" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0E078F2C-C3A8-485C-8882-60D73C6EBCBC}" name="Unique-ifier" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{0E078F2C-C3A8-485C-8882-60D73C6EBCBC}" name="Unique-ifier" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4025B1EF-7C7D-407C-85BA-EBC6E4460D38}" name="Host port" dataDxfId="4" dataCellStyle="Ezres">
+    <tableColumn id="6" xr3:uid="{4025B1EF-7C7D-407C-85BA-EBC6E4460D38}" name="Host port" dataDxfId="0" dataCellStyle="Ezres">
       <calculatedColumnFormula>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{930327C8-2A0C-49D8-B5EC-57170DDDD94A}" name="Container port"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,683 +868,641 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>20000</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx-Proxy-Manager</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>30000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>30001</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>80</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>30000</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nginx</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>30000</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>30002</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>443</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>21000</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Portainer</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>31</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>31000</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Gitea</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>20000</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>20001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>80</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>32000</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Nextcloud</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>20000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>20002</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>81</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>33</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>33000</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Vaultwarden</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>20000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>20003</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>443</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>34</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>34000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/Jellyfin</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>35000</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/FileBrowser</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>21000</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>21001</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>8000</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>36000</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/PrivateBin</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>21000</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>21002</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>9443</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>37</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>37000</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" t="str">
         <f>_xlfn.CONCAT(Táblázat1[[#This Row],[Base]],"/",Táblázat1[[#This Row],[Könyvtár]])</f>
         <v>/home/xoyowiz/MyBlackBox/Docker/qBittorrent</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f>Táblázat1[[#This Row],[Port key]]*1000</f>
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>36000</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>36001</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12">
+        <v>8080</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>37000</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>37001</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>33001</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>35000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>35001</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K22" s="3" t="s">
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>31001</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K23" s="3" t="s">
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>34000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>34001</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="3" t="s">
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <f>IFERROR(VLOOKUP(Táblázat3[[#This Row],[Container név]],Táblázat1[[Container név]:[Port Base]],3,FALSE),0)</f>
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <f>COUNTIF($L$2:Táblázat3[[#This Row],[Host port base]],Táblázat3[[#This Row],[Host port base]])</f>
         <v>1</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f>Táblázat3[[#This Row],[Host port base]]+Táblázat3[[#This Row],[Unique-ifier]]</f>
         <v>32001</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="5"/>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
